--- a/RegAddress.xlsx
+++ b/RegAddress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90fc0514de939dfe/Desktop/Vivado_projects/mPMT_DAQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="877" documentId="8_{8A3C3F83-2C0F-4F1A-A373-9A14084BB424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0399B0CD-5032-41D9-A6BB-77DC24FE89C5}"/>
+  <xr:revisionPtr revIDLastSave="880" documentId="8_{8A3C3F83-2C0F-4F1A-A373-9A14084BB424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBBF7215-3278-4DD2-9ED4-169E1A663724}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C35D51C6-3A07-4681-9188-844C18E9D510}"/>
   </bookViews>
@@ -800,22 +800,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -834,6 +825,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -856,10 +856,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1161,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AFD324-D94E-4F7C-800C-7E19D3C848B5}">
   <dimension ref="A1:AJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,9 +1169,9 @@
     <col min="11" max="11" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.54296875" bestFit="1" customWidth="1"/>
@@ -1198,10 +1194,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1325,27 +1321,27 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="13"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="12"/>
       <c r="AI2" s="5" t="s">
         <v>37</v>
       </c>
@@ -1373,27 +1369,27 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="13"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="12"/>
       <c r="AI3" s="5" t="s">
         <v>37</v>
       </c>
@@ -1421,27 +1417,27 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="13"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="12"/>
       <c r="AI4" s="5" t="s">
         <v>43</v>
       </c>
@@ -1456,17 +1452,17 @@
       <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1546,40 +1542,40 @@
       <c r="B6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
       <c r="AI6" s="5" t="s">
         <v>43</v>
       </c>
@@ -1594,40 +1590,40 @@
       <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="12"/>
       <c r="AI7" s="5" t="s">
         <v>37</v>
       </c>
@@ -1658,24 +1654,24 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="21"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="18"/>
       <c r="AI8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1694,38 +1690,38 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="11" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="13"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="12"/>
       <c r="AI9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1747,33 +1743,33 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="13"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="12"/>
       <c r="AI10" s="5" t="s">
         <v>43</v>
       </c>
@@ -1795,33 +1791,33 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="13"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="12"/>
       <c r="AI11" s="5" t="s">
         <v>43</v>
       </c>
@@ -1843,33 +1839,33 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="13"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="12"/>
       <c r="AI12" s="5" t="s">
         <v>43</v>
       </c>
@@ -1891,33 +1887,33 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="13"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="12"/>
       <c r="AI13" s="5" t="s">
         <v>43</v>
       </c>
@@ -1939,33 +1935,33 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="13"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="12"/>
       <c r="AI14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1987,33 +1983,33 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="13"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="12"/>
       <c r="AI15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2035,33 +2031,33 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="13"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="12"/>
       <c r="AI16" s="5" t="s">
         <v>43</v>
       </c>
@@ -2083,33 +2079,33 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="13"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="12"/>
       <c r="AI17" s="5" t="s">
         <v>43</v>
       </c>
@@ -2131,33 +2127,33 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="13"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="12"/>
       <c r="AI18" s="5" t="s">
         <v>43</v>
       </c>
@@ -2179,33 +2175,33 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="13"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="12"/>
       <c r="AI19" s="5" t="s">
         <v>43</v>
       </c>
@@ -2227,33 +2223,33 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="13"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="12"/>
       <c r="AI20" s="5" t="s">
         <v>43</v>
       </c>
@@ -2275,33 +2271,33 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="13"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="12"/>
       <c r="AI21" s="5" t="s">
         <v>43</v>
       </c>
@@ -2323,33 +2319,33 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="13"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="12"/>
       <c r="AI22" s="5" t="s">
         <v>43</v>
       </c>
@@ -2371,33 +2367,33 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="13"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="12"/>
       <c r="AI23" s="5" t="s">
         <v>43</v>
       </c>
@@ -2419,33 +2415,33 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="13"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="12"/>
       <c r="AI24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2467,33 +2463,33 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="13"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="12"/>
       <c r="AI25" s="5" t="s">
         <v>43</v>
       </c>
@@ -2515,33 +2511,33 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="13"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="12"/>
       <c r="AI26" s="5" t="s">
         <v>43</v>
       </c>
@@ -2563,33 +2559,33 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="13"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="12"/>
       <c r="AI27" s="5" t="s">
         <v>43</v>
       </c>
@@ -2611,33 +2607,33 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="13"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="12"/>
       <c r="AI28" s="5" t="s">
         <v>43</v>
       </c>
@@ -2652,40 +2648,40 @@
       <c r="B29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="13"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="12"/>
       <c r="AI29" s="5" t="s">
         <v>43</v>
       </c>
@@ -2708,34 +2704,34 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="11" t="s">
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="13"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="12"/>
       <c r="AI30" s="5" t="s">
         <v>37</v>
       </c>
@@ -2758,34 +2754,34 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="11" t="s">
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="13"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="12"/>
       <c r="AI31" s="5" t="s">
         <v>37</v>
       </c>
@@ -2808,34 +2804,34 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="11" t="s">
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="13"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="12"/>
       <c r="AI32" s="5" t="s">
         <v>37</v>
       </c>
@@ -2858,34 +2854,34 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="11" t="s">
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="13"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="12"/>
       <c r="AI33" s="5" t="s">
         <v>37</v>
       </c>
@@ -2908,34 +2904,34 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="11" t="s">
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="13"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="12"/>
       <c r="AI34" s="5" t="s">
         <v>37</v>
       </c>
@@ -2958,34 +2954,34 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="11" t="s">
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="13"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="12"/>
       <c r="AI35" s="5" t="s">
         <v>37</v>
       </c>
@@ -3008,34 +3004,34 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="11" t="s">
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="13"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="12"/>
       <c r="AI36" s="5" t="s">
         <v>37</v>
       </c>
@@ -3058,34 +3054,34 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="11" t="s">
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="13"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="12"/>
       <c r="AI37" s="5" t="s">
         <v>37</v>
       </c>
@@ -3108,34 +3104,34 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="11" t="s">
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="12"/>
-      <c r="AH38" s="13"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="12"/>
       <c r="AI38" s="5" t="s">
         <v>37</v>
       </c>
@@ -3158,20 +3154,20 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="16"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="22"/>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
@@ -3198,46 +3194,46 @@
       <c r="B40" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14" t="s">
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="14" t="s">
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
       <c r="AI40" s="5" t="s">
         <v>37</v>
       </c>
@@ -3252,46 +3248,46 @@
       <c r="B41" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14" t="s">
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14" t="s">
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
       <c r="AI41" s="5" t="s">
         <v>37</v>
       </c>
@@ -3306,46 +3302,46 @@
       <c r="B42" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14" t="s">
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="14" t="s">
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="14"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" s="20"/>
+      <c r="AG42" s="20"/>
+      <c r="AH42" s="20"/>
       <c r="AI42" s="5" t="s">
         <v>37</v>
       </c>
@@ -3360,46 +3356,46 @@
       <c r="B43" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14" t="s">
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="14" t="s">
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+      <c r="AF43" s="20"/>
+      <c r="AG43" s="20"/>
+      <c r="AH43" s="20"/>
       <c r="AI43" s="5" t="s">
         <v>37</v>
       </c>
@@ -3414,36 +3410,36 @@
       <c r="B44" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14" t="s">
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
@@ -3461,20 +3457,44 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="J13:AH13"/>
-    <mergeCell ref="J14:AH14"/>
-    <mergeCell ref="J15:AH15"/>
-    <mergeCell ref="J16:AH16"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="P3:AH3"/>
-    <mergeCell ref="G9:T9"/>
-    <mergeCell ref="P4:AH4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="J24:AH24"/>
-    <mergeCell ref="J25:AH25"/>
-    <mergeCell ref="J26:AH26"/>
-    <mergeCell ref="J27:AH27"/>
-    <mergeCell ref="J28:AH28"/>
+    <mergeCell ref="C29:AH29"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="K44:R44"/>
+    <mergeCell ref="S44:Z44"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="K43:R43"/>
+    <mergeCell ref="S43:Z43"/>
+    <mergeCell ref="AA43:AH43"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="S42:Z42"/>
+    <mergeCell ref="AA40:AH40"/>
+    <mergeCell ref="S40:Z40"/>
+    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="K41:R41"/>
+    <mergeCell ref="S41:Z41"/>
+    <mergeCell ref="AA41:AH41"/>
+    <mergeCell ref="W33:AH33"/>
+    <mergeCell ref="K33:V33"/>
+    <mergeCell ref="K37:V37"/>
+    <mergeCell ref="W37:AH37"/>
+    <mergeCell ref="K38:V38"/>
+    <mergeCell ref="W38:AH38"/>
+    <mergeCell ref="K39:V39"/>
+    <mergeCell ref="W34:AH34"/>
+    <mergeCell ref="K35:V35"/>
+    <mergeCell ref="W35:AH35"/>
+    <mergeCell ref="K36:V36"/>
+    <mergeCell ref="W36:AH36"/>
+    <mergeCell ref="W32:AH32"/>
+    <mergeCell ref="W31:AH31"/>
+    <mergeCell ref="W30:AH30"/>
+    <mergeCell ref="K30:V30"/>
+    <mergeCell ref="K31:V31"/>
+    <mergeCell ref="K32:V32"/>
     <mergeCell ref="K34:V34"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C7:AH7"/>
@@ -3491,44 +3511,20 @@
     <mergeCell ref="J21:AH21"/>
     <mergeCell ref="J22:AH22"/>
     <mergeCell ref="J23:AH23"/>
-    <mergeCell ref="W32:AH32"/>
-    <mergeCell ref="W31:AH31"/>
-    <mergeCell ref="W30:AH30"/>
-    <mergeCell ref="K30:V30"/>
-    <mergeCell ref="K31:V31"/>
-    <mergeCell ref="K32:V32"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="K41:R41"/>
-    <mergeCell ref="S41:Z41"/>
-    <mergeCell ref="AA41:AH41"/>
-    <mergeCell ref="W33:AH33"/>
-    <mergeCell ref="K33:V33"/>
-    <mergeCell ref="K37:V37"/>
-    <mergeCell ref="W37:AH37"/>
-    <mergeCell ref="K38:V38"/>
-    <mergeCell ref="W38:AH38"/>
-    <mergeCell ref="K39:V39"/>
-    <mergeCell ref="W34:AH34"/>
-    <mergeCell ref="K35:V35"/>
-    <mergeCell ref="W35:AH35"/>
-    <mergeCell ref="K36:V36"/>
-    <mergeCell ref="W36:AH36"/>
-    <mergeCell ref="C29:AH29"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="K44:R44"/>
-    <mergeCell ref="S44:Z44"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="K43:R43"/>
-    <mergeCell ref="S43:Z43"/>
-    <mergeCell ref="AA43:AH43"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="S42:Z42"/>
-    <mergeCell ref="AA40:AH40"/>
-    <mergeCell ref="S40:Z40"/>
-    <mergeCell ref="K40:R40"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="J24:AH24"/>
+    <mergeCell ref="J25:AH25"/>
+    <mergeCell ref="J26:AH26"/>
+    <mergeCell ref="J27:AH27"/>
+    <mergeCell ref="J28:AH28"/>
+    <mergeCell ref="J13:AH13"/>
+    <mergeCell ref="J14:AH14"/>
+    <mergeCell ref="J15:AH15"/>
+    <mergeCell ref="J16:AH16"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="P3:AH3"/>
+    <mergeCell ref="G9:T9"/>
+    <mergeCell ref="P4:AH4"/>
+    <mergeCell ref="C5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
